--- a/02_Logistic_Regression/Output/InLrPt_00_Results_Summary.xlsx
+++ b/02_Logistic_Regression/Output/InLrPt_00_Results_Summary.xlsx
@@ -847,7 +847,7 @@
         <v>583</v>
       </c>
       <c r="C12">
-        <v>0.286</v>
+        <v>0.714</v>
       </c>
       <c r="D12">
         <v>0.452</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>7.829326445064638</v>
+        <v>8.028118934152998</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>4.088652864529585</v>
+        <v>4.105928322727145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>5.479385703522196</v>
+        <v>5.479306339060577</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>5.779720013727657</v>
+        <v>5.758439174509814</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -941,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>2.665135003680805</v>
+        <v>2.68855644444936</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -952,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>3.326781058914075</v>
+        <v>3.349120513095468</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -963,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>3.193024688499279</v>
+        <v>3.196186622121956</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -974,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>102.235956789184</v>
+        <v>105.7667082703045</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>133.0557195284925</v>
+        <v>135.4044845455055</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -996,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>25.91626899772592</v>
+        <v>25.86720161629629</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>1.543903166217791</v>
+        <v>3.942859723556538</v>
       </c>
     </row>
   </sheetData>

--- a/02_Logistic_Regression/Output/InLrPt_00_Results_Summary.xlsx
+++ b/02_Logistic_Regression/Output/InLrPt_00_Results_Summary.xlsx
@@ -7,19 +7,68 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="1" r:id="rId1"/>
-    <sheet name="VIF" sheetId="2" r:id="rId2"/>
-    <sheet name="PCA_VAR" sheetId="3" r:id="rId3"/>
-    <sheet name="PCA_Components" sheetId="4" r:id="rId4"/>
-    <sheet name="PCA_Top_Features" sheetId="5" r:id="rId5"/>
-    <sheet name="DTR-Features" sheetId="6" r:id="rId6"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="VIF" sheetId="3" r:id="rId3"/>
+    <sheet name="PCA_VAR" sheetId="4" r:id="rId4"/>
+    <sheet name="PCA_Components" sheetId="5" r:id="rId5"/>
+    <sheet name="PCA_Top_Features" sheetId="6" r:id="rId6"/>
+    <sheet name="DTR-Features" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Total_Bilirubin</t>
+  </si>
+  <si>
+    <t>Direct_Bilirubin</t>
+  </si>
+  <si>
+    <t>Alkaline_Phosphotase</t>
+  </si>
+  <si>
+    <t>Alamine_Aminotransferase</t>
+  </si>
+  <si>
+    <t>Aspartate_Aminotransferase</t>
+  </si>
+  <si>
+    <t>Total_Protiens</t>
+  </si>
+  <si>
+    <t>Albumin</t>
+  </si>
+  <si>
+    <t>Albumin_and_Globulin_Ratio</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
   <si>
     <t>count</t>
   </si>
@@ -43,39 +92,6 @@
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Total_Bilirubin</t>
-  </si>
-  <si>
-    <t>Direct_Bilirubin</t>
-  </si>
-  <si>
-    <t>Alkaline_Phosphotase</t>
-  </si>
-  <si>
-    <t>Alamine_Aminotransferase</t>
-  </si>
-  <si>
-    <t>Aspartate_Aminotransferase</t>
-  </si>
-  <si>
-    <t>Total_Protiens</t>
-  </si>
-  <si>
-    <t>Albumin</t>
-  </si>
-  <si>
-    <t>Albumin_and_Globulin_Ratio</t>
-  </si>
-  <si>
-    <t>Dataset</t>
   </si>
   <si>
     <t>Feature</t>
@@ -517,355 +533,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>583</v>
-      </c>
-      <c r="C2">
-        <v>44.746</v>
-      </c>
-      <c r="D2">
-        <v>16.19</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>33</v>
-      </c>
-      <c r="G2">
-        <v>45</v>
-      </c>
-      <c r="H2">
-        <v>58</v>
-      </c>
-      <c r="I2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>583</v>
-      </c>
-      <c r="C3">
-        <v>0.756</v>
-      </c>
-      <c r="D3">
-        <v>0.43</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>583</v>
-      </c>
-      <c r="C4">
-        <v>3.299</v>
-      </c>
-      <c r="D4">
-        <v>6.21</v>
-      </c>
-      <c r="E4">
-        <v>0.4</v>
-      </c>
-      <c r="F4">
-        <v>0.8</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2.6</v>
-      </c>
-      <c r="I4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>583</v>
-      </c>
-      <c r="C5">
-        <v>1.486</v>
-      </c>
-      <c r="D5">
-        <v>2.808</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>0.2</v>
-      </c>
-      <c r="G5">
-        <v>0.3</v>
-      </c>
-      <c r="H5">
-        <v>1.3</v>
-      </c>
-      <c r="I5">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>583</v>
-      </c>
-      <c r="C6">
-        <v>290.576</v>
-      </c>
-      <c r="D6">
-        <v>242.938</v>
-      </c>
-      <c r="E6">
-        <v>63</v>
-      </c>
-      <c r="F6">
-        <v>175.5</v>
-      </c>
-      <c r="G6">
-        <v>208</v>
-      </c>
-      <c r="H6">
-        <v>298</v>
-      </c>
-      <c r="I6">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>583</v>
-      </c>
-      <c r="C7">
-        <v>80.714</v>
-      </c>
-      <c r="D7">
-        <v>182.62</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>35</v>
-      </c>
-      <c r="H7">
-        <v>60.5</v>
-      </c>
-      <c r="I7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="C12" t="s">
         <v>14</v>
-      </c>
-      <c r="B8">
-        <v>583</v>
-      </c>
-      <c r="C8">
-        <v>109.911</v>
-      </c>
-      <c r="D8">
-        <v>288.919</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>42</v>
-      </c>
-      <c r="H8">
-        <v>87</v>
-      </c>
-      <c r="I8">
-        <v>4929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>583</v>
-      </c>
-      <c r="C9">
-        <v>6.483</v>
-      </c>
-      <c r="D9">
-        <v>1.085</v>
-      </c>
-      <c r="E9">
-        <v>2.7</v>
-      </c>
-      <c r="F9">
-        <v>5.8</v>
-      </c>
-      <c r="G9">
-        <v>6.6</v>
-      </c>
-      <c r="H9">
-        <v>7.2</v>
-      </c>
-      <c r="I9">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>583</v>
-      </c>
-      <c r="C10">
-        <v>3.142</v>
-      </c>
-      <c r="D10">
-        <v>0.796</v>
-      </c>
-      <c r="E10">
-        <v>0.9</v>
-      </c>
-      <c r="F10">
-        <v>2.6</v>
-      </c>
-      <c r="G10">
-        <v>3.1</v>
-      </c>
-      <c r="H10">
-        <v>3.8</v>
-      </c>
-      <c r="I10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>583</v>
-      </c>
-      <c r="C11">
-        <v>0.947</v>
-      </c>
-      <c r="D11">
-        <v>0.318</v>
-      </c>
-      <c r="E11">
-        <v>0.3</v>
-      </c>
-      <c r="F11">
-        <v>0.7</v>
-      </c>
-      <c r="G11">
-        <v>0.947</v>
-      </c>
-      <c r="H11">
-        <v>1.1</v>
-      </c>
-      <c r="I11">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>583</v>
-      </c>
-      <c r="C12">
-        <v>0.714</v>
-      </c>
-      <c r="D12">
-        <v>0.452</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -874,6 +674,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>583</v>
+      </c>
+      <c r="C2">
+        <v>44.746</v>
+      </c>
+      <c r="D2">
+        <v>16.19</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>583</v>
+      </c>
+      <c r="C3">
+        <v>0.756</v>
+      </c>
+      <c r="D3">
+        <v>0.43</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>583</v>
+      </c>
+      <c r="C4">
+        <v>3.299</v>
+      </c>
+      <c r="D4">
+        <v>6.21</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2.6</v>
+      </c>
+      <c r="I4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>583</v>
+      </c>
+      <c r="C5">
+        <v>1.486</v>
+      </c>
+      <c r="D5">
+        <v>2.808</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>1.3</v>
+      </c>
+      <c r="I5">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>583</v>
+      </c>
+      <c r="C6">
+        <v>290.576</v>
+      </c>
+      <c r="D6">
+        <v>242.938</v>
+      </c>
+      <c r="E6">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>175.5</v>
+      </c>
+      <c r="G6">
+        <v>208</v>
+      </c>
+      <c r="H6">
+        <v>298</v>
+      </c>
+      <c r="I6">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>583</v>
+      </c>
+      <c r="C7">
+        <v>80.714</v>
+      </c>
+      <c r="D7">
+        <v>182.62</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>60.5</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>583</v>
+      </c>
+      <c r="C8">
+        <v>109.911</v>
+      </c>
+      <c r="D8">
+        <v>288.919</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>583</v>
+      </c>
+      <c r="C9">
+        <v>6.483</v>
+      </c>
+      <c r="D9">
+        <v>1.085</v>
+      </c>
+      <c r="E9">
+        <v>2.7</v>
+      </c>
+      <c r="F9">
+        <v>5.8</v>
+      </c>
+      <c r="G9">
+        <v>6.6</v>
+      </c>
+      <c r="H9">
+        <v>7.2</v>
+      </c>
+      <c r="I9">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>583</v>
+      </c>
+      <c r="C10">
+        <v>3.142</v>
+      </c>
+      <c r="D10">
+        <v>0.796</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>2.6</v>
+      </c>
+      <c r="G10">
+        <v>3.1</v>
+      </c>
+      <c r="H10">
+        <v>3.8</v>
+      </c>
+      <c r="I10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>583</v>
+      </c>
+      <c r="C11">
+        <v>0.947</v>
+      </c>
+      <c r="D11">
+        <v>0.318</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>0.947</v>
+      </c>
+      <c r="H11">
+        <v>1.1</v>
+      </c>
+      <c r="I11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>583</v>
+      </c>
+      <c r="C12">
+        <v>0.714</v>
+      </c>
+      <c r="D12">
+        <v>0.452</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -883,10 +1041,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -894,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>8.028118934152998</v>
@@ -905,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4.105928322727145</v>
@@ -916,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5.479306339060577</v>
@@ -927,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>5.758439174509814</v>
@@ -938,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2.68855644444936</v>
@@ -949,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>3.349120513095468</v>
@@ -960,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>3.196186622121956</v>
@@ -971,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>105.7667082703045</v>
@@ -982,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>135.4044845455055</v>
@@ -993,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>25.86720161629629</v>
@@ -1004,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>3.942859723556538</v>
@@ -1015,7 +1173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1081,7 +1239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1336,7 +1494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -1346,16 +1504,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1363,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>-0.437</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1380,16 +1538,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0.433</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1397,16 +1555,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>0.498</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1414,16 +1572,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>-0.77</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1431,16 +1589,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0.72</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1448,16 +1606,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>-0.601</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1465,16 +1623,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>0.735</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1482,16 +1640,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0.702</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1499,16 +1657,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0.703</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1516,16 +1674,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>-0.743</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1533,16 +1691,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>-0.701</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1550,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>0.601</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1567,16 +1725,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>0.52</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1594,10 +1752,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1605,10 +1763,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1616,10 +1774,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1627,10 +1785,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1638,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1649,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1660,10 +1818,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1671,10 +1829,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1682,10 +1840,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1693,10 +1851,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1704,10 +1862,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
